--- a/sample/sample1.xlsx
+++ b/sample/sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/general/Documents/Developer/Python/PileAnalyser/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujita/Documents/Developer/Python/PileAnalyser/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8436BA1-6797-E147-B19B-37D8AE2D9779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F03D28-BEED-6D43-88A6-281D69A44ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33020" yWindow="4080" windowWidth="25800" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15320" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>N値</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>alpha</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -363,7 +367,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -730,10 +734,10 @@
         <v>14.15</v>
       </c>
       <c r="B15" s="7">
-        <v>105.9</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9">
@@ -741,11 +745,11 @@
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>74130</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13">
@@ -753,10 +757,10 @@
         <v>15.15</v>
       </c>
       <c r="B16" s="7">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9">
@@ -764,11 +768,11 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>157500</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13">
@@ -776,10 +780,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="B17" s="7">
-        <v>163.6</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9">
@@ -787,11 +791,11 @@
       </c>
       <c r="F17" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>114520</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13">
@@ -799,10 +803,10 @@
         <v>17.149999999999999</v>
       </c>
       <c r="B18" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9">
@@ -810,11 +814,11 @@
       </c>
       <c r="F18" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>34300</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13">
@@ -822,10 +826,10 @@
         <v>18.149999999999999</v>
       </c>
       <c r="B19" s="7">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9">
@@ -833,11 +837,11 @@
       </c>
       <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>63000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13">
@@ -845,10 +849,10 @@
         <v>19.149999999999999</v>
       </c>
       <c r="B20" s="7">
-        <v>257.10000000000002</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9">
@@ -856,11 +860,11 @@
       </c>
       <c r="F20" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>179970.00000000003</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13">
@@ -868,10 +872,10 @@
         <v>20.149999999999999</v>
       </c>
       <c r="B21" s="7">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="9">
@@ -879,11 +883,11 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>126000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13">
@@ -891,10 +895,10 @@
         <v>21.15</v>
       </c>
       <c r="B22" s="7">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="9">
@@ -902,11 +906,11 @@
       </c>
       <c r="F22" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>315000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13">
@@ -914,10 +918,10 @@
         <v>22.15</v>
       </c>
       <c r="B23" s="7">
-        <v>128.6</v>
+        <v>60</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9">
@@ -925,11 +929,11 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>90020</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13">
@@ -937,10 +941,10 @@
         <v>23.1</v>
       </c>
       <c r="B24" s="7">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9">
@@ -948,11 +952,11 @@
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13">
